--- a/Scene编辑器窗口.xlsx
+++ b/Scene编辑器窗口.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84">
   <si>
     <t>说明：</t>
   </si>
@@ -56,7 +56,7 @@
     <t>隐藏与显示</t>
   </si>
   <si>
-    <t>隐藏与显示当前场景节点Node</t>
+    <t>隐藏与显示当前场景节点Node。</t>
   </si>
   <si>
     <t>锁定</t>
@@ -94,34 +94,100 @@
     <t>添加对象</t>
   </si>
   <si>
+    <t>在场景添加场景节点（无组件）</t>
+  </si>
+  <si>
     <t>删除对象</t>
   </si>
   <si>
+    <t>删除场景节点，包括其包含的组件。</t>
+  </si>
+  <si>
     <t>添加组件</t>
   </si>
   <si>
+    <t>骨骼动画组件</t>
+  </si>
+  <si>
+    <t>添加显示骨骼动画的功能：加载Cocostudio动画编辑器导出的动画文件。</t>
+  </si>
+  <si>
+    <t>地图组件</t>
+  </si>
+  <si>
+    <t>添加显示Tmx地图功能：加载tmx格式的地图文件。</t>
+  </si>
+  <si>
+    <t>UI组件</t>
+  </si>
+  <si>
+    <t>添加显示UI的功能：加载Cocostudio UI编辑器导出的UI数据文件。</t>
+  </si>
+  <si>
+    <t>粒子组件</t>
+  </si>
+  <si>
+    <t>添加显示粒子的功能：加载plist粒子文件。</t>
+  </si>
+  <si>
+    <t>自定义属性组件</t>
+  </si>
+  <si>
+    <t>添加记录属性数据的功能：加载Cocostudio数据编辑器导出的数据文件。</t>
+  </si>
+  <si>
+    <t>音效组件</t>
+  </si>
+  <si>
+    <t>添加播放音效的功能：加载mp3和wav格式的音效。</t>
+  </si>
+  <si>
+    <t>精灵组件</t>
+  </si>
+  <si>
+    <t>添加显示CCSprite的功能：加载png图片。</t>
+  </si>
+  <si>
+    <t>删除组件</t>
+  </si>
+  <si>
     <t>骨骼组件</t>
   </si>
   <si>
-    <t>地图组件</t>
+    <t>去掉显示骨骼动画的功能。</t>
+  </si>
+  <si>
+    <t>去掉显示Tmx地图的功能。</t>
   </si>
   <si>
     <t>UI</t>
   </si>
   <si>
+    <t>去掉显示UI的功能。</t>
+  </si>
+  <si>
     <t>粒子系统</t>
   </si>
   <si>
+    <t>去掉显示粒子的功能。</t>
+  </si>
+  <si>
     <t>自定义属性</t>
   </si>
   <si>
+    <t>去掉记录属性数据的功能。</t>
+  </si>
+  <si>
     <t>声音</t>
   </si>
   <si>
+    <t>去掉播放音效的功能。</t>
+  </si>
+  <si>
     <t>精灵</t>
   </si>
   <si>
-    <t>删除组件</t>
+    <t>去掉显示CCSprite的功能。</t>
   </si>
   <si>
     <t>渲染</t>
@@ -130,9 +196,23 @@
     <t>渲染区</t>
   </si>
   <si>
+    <t>场景编辑器所有编辑结果的呈现，中间黑色的区域代表手机屏幕。</t>
+  </si>
+  <si>
     <t>属性窗口</t>
   </si>
   <si>
+    <t xml:space="preserve">属性包含了两部分 常规 和 对应组件的属性。常规包括：
+1、Tag：当前场景节点CCNode的tag。
+2、Zorder：当前场景节点CCNode的zorder。
+3、位置：当前场景节点的位置。
+4、别名：可以给CCNode起一个别名，用于标识。
+5、旋转：控制当前场景节点CCNode旋转。
+6、是否可见：控制当前场景是否可见。
+7、缩放：控制X方向以及Y方向的缩放。
+</t>
+  </si>
+  <si>
     <t>资源窗口</t>
   </si>
   <si>
@@ -175,7 +255,28 @@
     <t>状态栏</t>
   </si>
   <si>
+    <t>状态栏记录 场景节点 X坐标 Y坐标 X方向缩放值 Y方向缩放值</t>
+  </si>
+  <si>
     <t>快捷菜单</t>
+  </si>
+  <si>
+    <t>场景编辑器工具栏 集成了一些常见操作的快捷按钮。</t>
+  </si>
+  <si>
+    <t>设置主渲染区的画布大小</t>
+  </si>
+  <si>
+    <t>启动模拟器</t>
+  </si>
+  <si>
+    <t>终止模拟器</t>
+  </si>
+  <si>
+    <t>整个渲染区以两条参考线的交点为中心进行放大0.1倍</t>
+  </si>
+  <si>
+    <t>整个渲染区以两条参考线的交点为中心进行缩小0.1倍</t>
   </si>
   <si>
     <t>预览</t>
@@ -388,7 +489,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -442,6 +543,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -451,7 +558,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -459,10 +566,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -850,10 +975,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G133"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+      <selection activeCell="E104" sqref="E104:G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -863,8 +988,8 @@
     <col min="3" max="3" width="30.75" customWidth="1"/>
     <col min="4" max="4" width="52.7962962962963" customWidth="1"/>
     <col min="5" max="5" width="22.3796296296296" customWidth="1"/>
-    <col min="6" max="6" width="15.0185185185185" customWidth="1"/>
-    <col min="7" max="7" width="6.13888888888889" customWidth="1"/>
+    <col min="6" max="6" width="40.2592592592593" customWidth="1"/>
+    <col min="7" max="7" width="12.9351851851852" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:7">
@@ -914,7 +1039,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" ht="175" customHeight="1" spans="1:7">
+    <row r="4" ht="161" customHeight="1" spans="1:7">
       <c r="A4" s="4"/>
       <c r="B4" s="8"/>
       <c r="C4" s="11" t="s">
@@ -967,93 +1092,111 @@
         <v>23</v>
       </c>
       <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
+      <c r="F7" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="G7" s="19"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="8"/>
       <c r="C8" s="17"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
+      <c r="D8" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="4"/>
       <c r="B9" s="8"/>
       <c r="C9" s="17"/>
-      <c r="D9" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21"/>
+    </row>
+    <row r="10" ht="28.8" spans="1:7">
       <c r="A10" s="4"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="D10" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" ht="28.8" spans="1:7">
       <c r="A11" s="4"/>
       <c r="B11" s="8"/>
       <c r="C11" s="17"/>
-      <c r="D11" s="22" t="s">
-        <v>25</v>
-      </c>
+      <c r="D11" s="22"/>
       <c r="E11" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="18"/>
+        <v>30</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>31</v>
+      </c>
       <c r="G11" s="19"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" ht="28.8" spans="1:7">
       <c r="A12" s="4"/>
       <c r="B12" s="8"/>
       <c r="C12" s="17"/>
       <c r="D12" s="22"/>
       <c r="E12" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="18"/>
+        <v>32</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>33</v>
+      </c>
       <c r="G12" s="19"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" ht="28.8" spans="1:7">
       <c r="A13" s="4"/>
       <c r="B13" s="8"/>
       <c r="C13" s="17"/>
       <c r="D13" s="22"/>
       <c r="E13" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="18"/>
+        <v>34</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="G13" s="19"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" ht="28.8" spans="1:7">
       <c r="A14" s="4"/>
       <c r="B14" s="8"/>
       <c r="C14" s="17"/>
       <c r="D14" s="22"/>
       <c r="E14" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="18"/>
+        <v>36</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>37</v>
+      </c>
       <c r="G14" s="19"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" ht="28.8" spans="1:7">
       <c r="A15" s="4"/>
       <c r="B15" s="8"/>
       <c r="C15" s="17"/>
       <c r="D15" s="22"/>
       <c r="E15" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="18"/>
+        <v>38</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="G15" s="19"/>
     </row>
     <row r="16" spans="1:7">
@@ -1062,42 +1205,48 @@
       <c r="C16" s="17"/>
       <c r="D16" s="22"/>
       <c r="E16" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="18"/>
+        <v>40</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>41</v>
+      </c>
       <c r="G16" s="19"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="4"/>
       <c r="B17" s="8"/>
       <c r="C17" s="17"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="4"/>
       <c r="B18" s="8"/>
       <c r="C18" s="17"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="21"/>
+      <c r="D18" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="19"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="4"/>
       <c r="B19" s="8"/>
       <c r="C19" s="17"/>
-      <c r="D19" s="22" t="s">
-        <v>33</v>
-      </c>
+      <c r="D19" s="22"/>
       <c r="E19" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="18"/>
+        <v>30</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>45</v>
+      </c>
       <c r="G19" s="19"/>
     </row>
     <row r="20" spans="1:7">
@@ -1106,9 +1255,11 @@
       <c r="C20" s="17"/>
       <c r="D20" s="22"/>
       <c r="E20" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="18"/>
+        <v>46</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>47</v>
+      </c>
       <c r="G20" s="19"/>
     </row>
     <row r="21" spans="1:7">
@@ -1117,9 +1268,11 @@
       <c r="C21" s="17"/>
       <c r="D21" s="22"/>
       <c r="E21" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="18"/>
+        <v>48</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>49</v>
+      </c>
       <c r="G21" s="19"/>
     </row>
     <row r="22" spans="1:7">
@@ -1128,9 +1281,11 @@
       <c r="C22" s="17"/>
       <c r="D22" s="22"/>
       <c r="E22" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="18"/>
+        <v>50</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>51</v>
+      </c>
       <c r="G22" s="19"/>
     </row>
     <row r="23" spans="1:7">
@@ -1139,1018 +1294,896 @@
       <c r="C23" s="17"/>
       <c r="D23" s="22"/>
       <c r="E23" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="18"/>
+        <v>52</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>53</v>
+      </c>
       <c r="G23" s="19"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" ht="14" customHeight="1" spans="1:7">
       <c r="A24" s="4"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="19"/>
-    </row>
-    <row r="25" ht="14" customHeight="1" spans="1:7">
-      <c r="A25" s="4"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
-    </row>
-    <row r="26" s="2" customFormat="1"/>
-    <row r="27" spans="1:7">
-      <c r="A27" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="28"/>
+    </row>
+    <row r="25" s="2" customFormat="1"/>
+    <row r="26" spans="1:7">
+      <c r="A26" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" ht="213" customHeight="1" spans="1:7">
+      <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" ht="213" customHeight="1" spans="1:7">
+      <c r="C27" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
+      <c r="C28" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>22</v>
-      </c>
+      <c r="C29" s="31"/>
+      <c r="D29" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="19"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="29"/>
+      <c r="C30" s="31"/>
       <c r="D30" s="18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
+      <c r="F30" s="18" t="s">
+        <v>26</v>
+      </c>
       <c r="G30" s="19"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="29"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
       <c r="G31" s="21"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" ht="28.8" spans="1:7">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="19"/>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="C32" s="31"/>
+      <c r="D32" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="33"/>
+    </row>
+    <row r="33" ht="28.8" spans="1:7">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="21"/>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="C33" s="31"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="19"/>
+    </row>
+    <row r="34" ht="28.8" spans="1:7">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" s="30"/>
-      <c r="G34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="19"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
-      <c r="C35" s="29"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="22"/>
-      <c r="E35" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F35" s="18"/>
+      <c r="E35" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="G35" s="19"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" ht="28.8" spans="1:7">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="29"/>
+      <c r="C36" s="31"/>
       <c r="D36" s="22"/>
-      <c r="E36" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F36" s="18"/>
+      <c r="E36" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="35" t="s">
+        <v>37</v>
+      </c>
       <c r="G36" s="19"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" ht="28.8" spans="1:7">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
-      <c r="C37" s="29"/>
+      <c r="C37" s="31"/>
       <c r="D37" s="22"/>
-      <c r="E37" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F37" s="18"/>
+      <c r="E37" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" s="35" t="s">
+        <v>39</v>
+      </c>
       <c r="G37" s="19"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="29"/>
+      <c r="C38" s="31"/>
       <c r="D38" s="22"/>
-      <c r="E38" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F38" s="18"/>
+      <c r="E38" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>41</v>
+      </c>
       <c r="G38" s="19"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F39" s="18"/>
-      <c r="G39" s="19"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F40" s="18"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>44</v>
+      </c>
       <c r="G40" s="19"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="21"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G41" s="19"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E42" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F42" s="18"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>47</v>
+      </c>
       <c r="G42" s="19"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
-      <c r="C43" s="29"/>
+      <c r="C43" s="31"/>
       <c r="D43" s="22"/>
       <c r="E43" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F43" s="18"/>
+        <v>48</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>49</v>
+      </c>
       <c r="G43" s="19"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
-      <c r="C44" s="29"/>
+      <c r="C44" s="31"/>
       <c r="D44" s="22"/>
       <c r="E44" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F44" s="18"/>
+        <v>50</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>51</v>
+      </c>
       <c r="G44" s="19"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
-      <c r="C45" s="29"/>
+      <c r="C45" s="31"/>
       <c r="D45" s="22"/>
       <c r="E45" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F45" s="18"/>
+        <v>52</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>53</v>
+      </c>
       <c r="G45" s="19"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="22"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="26"/>
       <c r="E46" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F46" s="18"/>
-      <c r="G46" s="19"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F47" s="18"/>
-      <c r="G47" s="19"/>
-    </row>
+        <v>54</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G46" s="28"/>
+    </row>
+    <row r="47" s="2" customFormat="1"/>
     <row r="48" spans="1:7">
-      <c r="A48" s="4"/>
+      <c r="A48" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="B48" s="4"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F48" s="25"/>
-      <c r="G48" s="26"/>
-    </row>
-    <row r="49" s="2" customFormat="1"/>
-    <row r="50" spans="1:7">
-      <c r="A50" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="7" t="s">
+      <c r="C48" s="6"/>
+      <c r="D48" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E48" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-    </row>
-    <row r="51" ht="269" customHeight="1" spans="1:7">
-      <c r="A51" s="4"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" ht="230" customHeight="1" spans="1:7">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="E49" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+    </row>
+    <row r="50" s="2" customFormat="1"/>
+    <row r="51" spans="1:7">
+      <c r="A51" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="B51" s="4"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="C51" s="6"/>
+      <c r="D51" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+    </row>
+    <row r="52" ht="237" customHeight="1" spans="1:7">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-    </row>
-    <row r="54" s="2" customFormat="1"/>
+      <c r="C53" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="19"/>
+    </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="A55" s="4"/>
       <c r="B55" s="4"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-    </row>
-    <row r="56" ht="296" customHeight="1" spans="1:7">
+      <c r="C55" s="31"/>
+      <c r="D55" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="33"/>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="19"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="19"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F58" s="18"/>
+      <c r="G58" s="19"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F59" s="18"/>
+      <c r="G59" s="19"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="27" t="s">
+        <v>69</v>
+      </c>
       <c r="E60" s="27"/>
       <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F61" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G61" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
+      <c r="G60" s="28"/>
+    </row>
+    <row r="61" s="2" customFormat="1"/>
     <row r="62" spans="1:7">
-      <c r="A62" s="4"/>
+      <c r="A62" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="B62" s="4"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="19"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="31"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="40"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
-      <c r="C64" s="29"/>
-      <c r="D64" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="19"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="40"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="19"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="40"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E66" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F66" s="18"/>
-      <c r="G66" s="19"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="40"/>
+      <c r="G66" s="40"/>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F67" s="18"/>
-      <c r="G67" s="19"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="40"/>
+      <c r="G67" s="40"/>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="26"/>
-    </row>
-    <row r="69" s="2" customFormat="1"/>
+      <c r="C68" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G68" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="19"/>
+    </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="A70" s="4"/>
       <c r="B70" s="4"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="21"/>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="27"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="19"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="27"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="21"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="27"/>
       <c r="E73" s="27"/>
       <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="27"/>
-      <c r="G74" s="27"/>
-    </row>
+      <c r="G73" s="28"/>
+    </row>
+    <row r="74" s="2" customFormat="1"/>
     <row r="75" spans="1:7">
-      <c r="A75" s="4"/>
+      <c r="A75" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="B75" s="4"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="27"/>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="C75" s="6"/>
+      <c r="D75" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+    </row>
+    <row r="76" ht="100" customHeight="1" spans="1:7">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
-      <c r="C76" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D76" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E76" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F76" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G76" s="16" t="s">
-        <v>22</v>
-      </c>
+      <c r="E76" s="40"/>
+      <c r="F76" s="40"/>
+      <c r="G76" s="40"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
-      <c r="C77" s="29"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="19"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="40"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="21"/>
+      <c r="E78" s="40"/>
+      <c r="F78" s="40"/>
+      <c r="G78" s="40"/>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
-      <c r="C79" s="29"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="19"/>
+      <c r="C79" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E79" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F79" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G79" s="16" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
-      <c r="C80" s="29"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="20"/>
-      <c r="G80" s="21"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="19"/>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
-      <c r="C81" s="32"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="26"/>
-    </row>
-    <row r="82" s="2" customFormat="1"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="21"/>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="19"/>
+    </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="A83" s="4"/>
       <c r="B83" s="4"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="7" t="s">
+      <c r="C83" s="37"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="28"/>
+    </row>
+    <row r="84" s="2" customFormat="1"/>
+    <row r="85" ht="12" customHeight="1" spans="1:7">
+      <c r="A85" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B85" s="40"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E83" s="7" t="s">
+      <c r="E85" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-    </row>
-    <row r="84" ht="139" customHeight="1" spans="1:7">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="27"/>
-      <c r="G84" s="27"/>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="E85" s="27"/>
-      <c r="F85" s="27"/>
-      <c r="G85" s="27"/>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+    </row>
+    <row r="86" ht="39" customHeight="1" spans="1:2">
       <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="27"/>
-      <c r="G86" s="27"/>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="B86" s="40"/>
+    </row>
+    <row r="87" ht="167" customHeight="1" spans="1:2">
       <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D87" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E87" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F87" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G87" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="B87" s="40"/>
+    </row>
+    <row r="88" ht="119" customHeight="1" spans="1:2">
       <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="29"/>
-      <c r="D88" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E88" s="18"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="19"/>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="B88" s="40"/>
+    </row>
+    <row r="89" ht="141" customHeight="1" spans="1:2">
       <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="29"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="20"/>
-      <c r="G89" s="21"/>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="B89" s="40"/>
+    </row>
+    <row r="90" ht="119" customHeight="1" spans="1:2">
       <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="19"/>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="32"/>
-      <c r="D91" s="25"/>
-      <c r="E91" s="25"/>
-      <c r="F91" s="25"/>
-      <c r="G91" s="26"/>
-    </row>
-    <row r="92" s="2" customFormat="1"/>
-    <row r="93" ht="12" customHeight="1" spans="1:7">
-      <c r="A93" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B93" s="27"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="7" t="s">
+      <c r="B90" s="40"/>
+    </row>
+    <row r="91" s="2" customFormat="1"/>
+    <row r="92" spans="1:7">
+      <c r="A92" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B92" s="40"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="E92" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-    </row>
-    <row r="94" ht="39" customHeight="1" spans="1:2">
-      <c r="A94" s="4"/>
-      <c r="B94" s="27"/>
-    </row>
-    <row r="95" ht="167" customHeight="1" spans="1:2">
-      <c r="A95" s="4"/>
-      <c r="B95" s="27"/>
-    </row>
-    <row r="96" ht="119" customHeight="1" spans="1:2">
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+    </row>
+    <row r="93" ht="64" customHeight="1" spans="1:7">
+      <c r="A93" s="4"/>
+      <c r="B93" s="40"/>
+      <c r="E93" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+    </row>
+    <row r="94" s="2" customFormat="1"/>
+    <row r="95" spans="1:7">
+      <c r="A95" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B95" s="4"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+    </row>
+    <row r="96" ht="49" customHeight="1" spans="1:7">
       <c r="A96" s="4"/>
-      <c r="B96" s="27"/>
-    </row>
-    <row r="97" ht="141" customHeight="1" spans="1:2">
+      <c r="B96" s="4"/>
+      <c r="E96" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+    </row>
+    <row r="97" ht="39" customHeight="1" spans="1:7">
       <c r="A97" s="4"/>
-      <c r="B97" s="27"/>
-    </row>
-    <row r="98" ht="119" customHeight="1" spans="1:2">
+      <c r="B97" s="4"/>
+      <c r="E97" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+    </row>
+    <row r="98" ht="44" customHeight="1" spans="1:7">
       <c r="A98" s="4"/>
-      <c r="B98" s="27"/>
-    </row>
-    <row r="99" spans="1:2">
+      <c r="B98" s="4"/>
+      <c r="E98" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+    </row>
+    <row r="99" ht="53" customHeight="1" spans="1:7">
       <c r="A99" s="4"/>
-      <c r="B99" s="27"/>
-    </row>
-    <row r="100" spans="1:2">
+      <c r="B99" s="4"/>
+      <c r="E99" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+    </row>
+    <row r="100" ht="52" customHeight="1" spans="1:7">
       <c r="A100" s="4"/>
-      <c r="B100" s="27"/>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="B100" s="4"/>
+      <c r="E100" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+    </row>
+    <row r="101" ht="50" customHeight="1" spans="1:7">
       <c r="A101" s="4"/>
-      <c r="B101" s="27"/>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="4"/>
-      <c r="B102" s="27"/>
-    </row>
-    <row r="103" s="2" customFormat="1"/>
-    <row r="104" spans="1:7">
-      <c r="A104" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B104" s="27"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="7" t="s">
+      <c r="B101" s="4"/>
+      <c r="E101" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+    </row>
+    <row r="102" s="2" customFormat="1"/>
+    <row r="103" spans="1:7">
+      <c r="A103" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B103" s="40"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E104" s="7" t="s">
+      <c r="E103" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
-    </row>
-    <row r="105" ht="177" customHeight="1" spans="1:7">
-      <c r="A105" s="4"/>
-      <c r="B105" s="27"/>
-      <c r="E105" s="27"/>
-      <c r="F105" s="27"/>
-      <c r="G105" s="27"/>
-    </row>
-    <row r="106" spans="1:7">
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+    </row>
+    <row r="104" ht="314" customHeight="1" spans="1:7">
+      <c r="A104" s="4"/>
+      <c r="B104" s="40"/>
+      <c r="E104" s="40"/>
+      <c r="F104" s="40"/>
+      <c r="G104" s="40"/>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+    </row>
+    <row r="106" spans="1:1">
       <c r="A106" s="4"/>
-      <c r="B106" s="27"/>
-      <c r="E106" s="27"/>
-      <c r="F106" s="27"/>
-      <c r="G106" s="27"/>
-    </row>
-    <row r="107" spans="1:7">
+    </row>
+    <row r="107" spans="1:1">
       <c r="A107" s="4"/>
-      <c r="B107" s="27"/>
-      <c r="E107" s="27"/>
-      <c r="F107" s="27"/>
-      <c r="G107" s="27"/>
-    </row>
-    <row r="108" spans="1:7">
+    </row>
+    <row r="108" spans="1:1">
       <c r="A108" s="4"/>
-      <c r="B108" s="27"/>
-      <c r="E108" s="27"/>
-      <c r="F108" s="27"/>
-      <c r="G108" s="27"/>
-    </row>
-    <row r="109" spans="1:7">
+    </row>
+    <row r="109" spans="1:1">
       <c r="A109" s="4"/>
-      <c r="B109" s="27"/>
-      <c r="E109" s="27"/>
-      <c r="F109" s="27"/>
-      <c r="G109" s="27"/>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110" s="4"/>
-      <c r="B110" s="27"/>
-      <c r="E110" s="27"/>
-      <c r="F110" s="27"/>
-      <c r="G110" s="27"/>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111" s="4"/>
-      <c r="B111" s="27"/>
-      <c r="E111" s="27"/>
-      <c r="F111" s="27"/>
-      <c r="G111" s="27"/>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="A112" s="4"/>
-      <c r="B112" s="27"/>
-      <c r="E112" s="27"/>
-      <c r="F112" s="27"/>
-      <c r="G112" s="27"/>
-    </row>
-    <row r="113" s="2" customFormat="1"/>
-    <row r="114" spans="1:7">
-      <c r="A114" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B114" s="4"/>
-      <c r="C114" s="6"/>
-      <c r="D114" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E114" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F114" s="7"/>
-      <c r="G114" s="7"/>
-    </row>
-    <row r="115" ht="67" customHeight="1" spans="1:7">
-      <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
-      <c r="E115" s="27"/>
-      <c r="F115" s="27"/>
-      <c r="G115" s="27"/>
-    </row>
-    <row r="116" ht="57" customHeight="1" spans="1:7">
-      <c r="A116" s="4"/>
-      <c r="B116" s="4"/>
-      <c r="E116" s="27"/>
-      <c r="F116" s="27"/>
-      <c r="G116" s="27"/>
-    </row>
-    <row r="117" ht="44" customHeight="1" spans="1:7">
-      <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
-      <c r="E117" s="27"/>
-      <c r="F117" s="27"/>
-      <c r="G117" s="27"/>
-    </row>
-    <row r="118" ht="53" customHeight="1" spans="1:7">
-      <c r="A118" s="4"/>
-      <c r="B118" s="4"/>
-      <c r="E118" s="27"/>
-      <c r="F118" s="27"/>
-      <c r="G118" s="27"/>
-    </row>
-    <row r="119" ht="52" customHeight="1" spans="1:7">
-      <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
-      <c r="E119" s="27"/>
-      <c r="F119" s="27"/>
-      <c r="G119" s="27"/>
-    </row>
-    <row r="120" ht="55" customHeight="1" spans="1:7">
-      <c r="A120" s="4"/>
-      <c r="B120" s="4"/>
-      <c r="E120" s="27"/>
-      <c r="F120" s="27"/>
-      <c r="G120" s="27"/>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="A121" s="4"/>
-      <c r="B121" s="4"/>
-      <c r="E121" s="27"/>
-      <c r="F121" s="27"/>
-      <c r="G121" s="27"/>
-    </row>
-    <row r="122" spans="1:7">
-      <c r="A122" s="4"/>
-      <c r="B122" s="4"/>
-      <c r="E122" s="27"/>
-      <c r="F122" s="27"/>
-      <c r="G122" s="27"/>
-    </row>
-    <row r="123" s="2" customFormat="1"/>
-    <row r="124" spans="1:7">
-      <c r="A124" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B124" s="27"/>
-      <c r="C124" s="6"/>
-      <c r="D124" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E124" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F124" s="7"/>
-      <c r="G124" s="7"/>
-    </row>
-    <row r="125" ht="384" customHeight="1" spans="1:7">
-      <c r="A125" s="4"/>
-      <c r="B125" s="27"/>
-      <c r="E125" s="27"/>
-      <c r="F125" s="27"/>
-      <c r="G125" s="27"/>
-    </row>
-    <row r="126" spans="1:7">
-      <c r="A126" s="4"/>
-      <c r="B126" s="27"/>
-      <c r="E126" s="27"/>
-      <c r="F126" s="27"/>
-      <c r="G126" s="27"/>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="A127" s="4"/>
-      <c r="B127" s="27"/>
-      <c r="E127" s="27"/>
-      <c r="F127" s="27"/>
-      <c r="G127" s="27"/>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="A128" s="4"/>
-      <c r="B128" s="27"/>
-      <c r="E128" s="27"/>
-      <c r="F128" s="27"/>
-      <c r="G128" s="27"/>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="A129" s="2"/>
-      <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" s="4"/>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" s="4"/>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" s="4"/>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="75">
+  <mergeCells count="61">
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E26:G26"/>
     <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
     <mergeCell ref="E51:G51"/>
     <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="E67:G67"/>
     <mergeCell ref="E75:G75"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="E78:G78"/>
     <mergeCell ref="E85:G85"/>
-    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="E92:G92"/>
     <mergeCell ref="E93:G93"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="E103:G103"/>
     <mergeCell ref="E104:G104"/>
-    <mergeCell ref="E105:G105"/>
-    <mergeCell ref="E106:G106"/>
-    <mergeCell ref="E107:G107"/>
-    <mergeCell ref="E108:G108"/>
-    <mergeCell ref="E109:G109"/>
-    <mergeCell ref="E110:G110"/>
-    <mergeCell ref="E111:G111"/>
-    <mergeCell ref="E112:G112"/>
-    <mergeCell ref="E114:G114"/>
-    <mergeCell ref="E115:G115"/>
-    <mergeCell ref="E116:G116"/>
-    <mergeCell ref="E117:G117"/>
-    <mergeCell ref="E118:G118"/>
-    <mergeCell ref="E119:G119"/>
-    <mergeCell ref="E120:G120"/>
-    <mergeCell ref="E121:G121"/>
-    <mergeCell ref="E122:G122"/>
-    <mergeCell ref="E124:G124"/>
-    <mergeCell ref="E125:G125"/>
-    <mergeCell ref="E126:G126"/>
-    <mergeCell ref="E127:G127"/>
-    <mergeCell ref="E128:G128"/>
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="A27:A48"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A55:A68"/>
-    <mergeCell ref="A70:A81"/>
-    <mergeCell ref="A83:A91"/>
-    <mergeCell ref="A93:A102"/>
-    <mergeCell ref="A104:A112"/>
-    <mergeCell ref="A114:A122"/>
-    <mergeCell ref="A124:A128"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="B2:B25"/>
-    <mergeCell ref="B27:B48"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B55:B68"/>
-    <mergeCell ref="B70:B81"/>
-    <mergeCell ref="B83:B91"/>
-    <mergeCell ref="B93:B102"/>
-    <mergeCell ref="B104:B112"/>
-    <mergeCell ref="B114:B122"/>
-    <mergeCell ref="B124:B128"/>
-    <mergeCell ref="C6:C25"/>
-    <mergeCell ref="C29:C48"/>
-    <mergeCell ref="C61:C68"/>
-    <mergeCell ref="C76:C81"/>
-    <mergeCell ref="C87:C91"/>
-    <mergeCell ref="D11:D17"/>
-    <mergeCell ref="D19:D25"/>
-    <mergeCell ref="D34:D40"/>
-    <mergeCell ref="D42:D48"/>
-    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="A2:A24"/>
+    <mergeCell ref="A26:A46"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A51:A60"/>
+    <mergeCell ref="A62:A73"/>
+    <mergeCell ref="A75:A83"/>
+    <mergeCell ref="A85:A90"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A95:A101"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="B2:B24"/>
+    <mergeCell ref="B26:B46"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B51:B60"/>
+    <mergeCell ref="B62:B73"/>
+    <mergeCell ref="B75:B83"/>
+    <mergeCell ref="B85:B90"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B95:B101"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C6:C24"/>
+    <mergeCell ref="C28:C46"/>
+    <mergeCell ref="C53:C60"/>
+    <mergeCell ref="C68:C73"/>
+    <mergeCell ref="C79:C83"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="D18:D24"/>
+    <mergeCell ref="D32:D38"/>
+    <mergeCell ref="D40:D46"/>
+    <mergeCell ref="D58:D59"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2158,10 +2191,10 @@
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <oleObjects>
-    <oleObject shapeId="2063" progId="Paint.Picture" r:id="rId3"/>
-    <oleObject shapeId="2064" progId="Paint.Picture" r:id="rId5"/>
-    <oleObject shapeId="2065" progId="Paint.Picture" r:id="rId7"/>
-    <oleObject shapeId="2066" progId="Paint.Picture" r:id="rId9"/>
+    <oleObject shapeId="2062" progId="Paint.Picture" r:id="rId3"/>
+    <oleObject shapeId="2063" progId="Paint.Picture" r:id="rId5"/>
+    <oleObject shapeId="2064" progId="Paint.Picture" r:id="rId7"/>
+    <oleObject shapeId="2065" progId="Paint.Picture" r:id="rId9"/>
   </oleObjects>
 </worksheet>
 </file>
--- a/Scene编辑器窗口.xlsx
+++ b/Scene编辑器窗口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30640" windowHeight="14420" activeTab="1"/>
+    <workbookView windowWidth="20360" windowHeight="8960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="简介" sheetId="1" r:id="rId1"/>
@@ -977,8 +977,8 @@
   <sheetPr/>
   <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104:G104"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="G12" s="19"/>
     </row>
-    <row r="13" ht="28.8" spans="1:7">
+    <row r="13" spans="1:7">
       <c r="A13" s="4"/>
       <c r="B13" s="8"/>
       <c r="C13" s="17"/>

--- a/Scene编辑器窗口.xlsx
+++ b/Scene编辑器窗口.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
   <si>
     <t>说明：</t>
   </si>
@@ -216,42 +216,104 @@
     <t>资源窗口</t>
   </si>
   <si>
+    <t xml:space="preserve">资源窗口：
+1.对项目所用的资源进行管理
+2.主要是辅助渲染区进行资源引用
+</t>
+  </si>
+  <si>
     <t>在Windows资源管理器中打开</t>
   </si>
   <si>
+    <t>直接索引到选中文件在磁盘的目录</t>
+  </si>
+  <si>
     <t>重命名</t>
   </si>
   <si>
+    <t>1.对资源进行重命名，Plist文件不支持不能重命名
+2.会有非法字符限制。
+3.快捷键F2</t>
+  </si>
+  <si>
     <t>删除</t>
   </si>
   <si>
+    <t>1.删除选中资源
+2.快捷键Delete
+3.如果此资源在渲染区已经被使用，会进行提示，删除将会把使用此资源的渲染控件重置为默认</t>
+  </si>
+  <si>
     <t>导入</t>
   </si>
   <si>
-    <t>导出碎图</t>
-  </si>
-  <si>
     <t>导入文件</t>
   </si>
   <si>
+    <t>1.选择磁盘中的文件进行导入，支持多选择导入。
+2.遇到同名文件时会提示同名，导入失败。</t>
+  </si>
+  <si>
     <t>导入文件夹</t>
   </si>
   <si>
+    <t>1.选择磁盘中的文件夹进行导入，
+2.遇到同名文件夹时会提示同名，导入失败；</t>
+  </si>
+  <si>
     <t>刷新资源列表</t>
   </si>
   <si>
-    <t>组件列表窗口</t>
+    <t>1.当用户手动删除或添加Resource文件夹下的资源文件时，用于同步刷新到资源列表</t>
   </si>
   <si>
     <t>输出</t>
   </si>
   <si>
+    <t>对用户的部分操作进行输出显示，包括操作成功与否。</t>
+  </si>
+  <si>
     <t>清除</t>
   </si>
   <si>
+    <t>清除当前的输出列表</t>
+  </si>
+  <si>
     <t>菜单栏</t>
   </si>
   <si>
+    <t>场景编辑器菜单栏，包括文件，编辑，视图，帮助</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新建项目：创建新项目；
+打开项目：打开原来已经创建的项目；
+保存项目：对当前正在编辑的项目进行保存操作；
+另存为：将当前项目另存到其他路径下；
+导出项目：将选中的场景编辑器资源导出；
+导入资源：选择资源导入到资源列表；
+退出：退出工程编辑，关闭编辑器
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">撤销：撤销上一步操作
+重做：将撤销的操作，再恢复
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">对象结构：打开对象结构窗口
+属性：打开属性窗口
+资源：打开资源窗口
+输出：打开输出窗口
+恢复所有窗口默认布局：将编辑器的窗口布局恢复到初始布局
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">查看帮助：查看帮助
+关于Cocostudio：有关cocostudio信息
+新版本检测：检查是否有新版本，进行版本升级；
+</t>
+  </si>
+  <si>
     <t>状态栏</t>
   </si>
   <si>
@@ -280,6 +342,11 @@
   </si>
   <si>
     <t>预览</t>
+  </si>
+  <si>
+    <t>1.对选中的资源进行预览。
+2.鼠标悬浮预览。
+3.双击可以打开电脑的图片查看器就行预览。</t>
   </si>
 </sst>
 </file>
@@ -489,7 +556,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -586,8 +653,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -975,10 +1078,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:G5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87:B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1635,9 +1738,11 @@
     <row r="52" ht="237" customHeight="1" spans="1:7">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
+      <c r="E52" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="4"/>
@@ -1662,467 +1767,360 @@
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="31"/>
-      <c r="D54" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
+      <c r="D54" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E54" s="22"/>
+      <c r="F54" s="35" t="s">
+        <v>64</v>
+      </c>
       <c r="G54" s="19"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" ht="57.6" spans="1:7">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="31"/>
-      <c r="D55" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
+      <c r="D55" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="E55" s="40"/>
+      <c r="F55" s="41" t="s">
+        <v>66</v>
+      </c>
       <c r="G55" s="33"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" ht="72" spans="1:7">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="31"/>
-      <c r="D56" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
+      <c r="D56" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56" s="22"/>
+      <c r="F56" s="35" t="s">
+        <v>68</v>
+      </c>
       <c r="G56" s="19"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" ht="43.2" spans="1:7">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="31"/>
-      <c r="D57" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
+      <c r="D57" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F57" s="35" t="s">
+        <v>71</v>
+      </c>
       <c r="G57" s="19"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" ht="43.2" spans="1:7">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="31"/>
-      <c r="D58" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="E58" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="F58" s="18"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F58" s="35" t="s">
+        <v>73</v>
+      </c>
       <c r="G58" s="19"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" ht="28.8" spans="1:7">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="F59" s="18"/>
-      <c r="G59" s="19"/>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="28"/>
-    </row>
-    <row r="61" s="2" customFormat="1"/>
-    <row r="62" spans="1:7">
-      <c r="A62" s="4" t="s">
-        <v>70</v>
-      </c>
+      <c r="C59" s="37"/>
+      <c r="D59" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E59" s="26"/>
+      <c r="F59" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="G59" s="28"/>
+    </row>
+    <row r="60" s="2" customFormat="1"/>
+    <row r="61" spans="1:7">
+      <c r="A61" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+    </row>
+    <row r="62" ht="100" customHeight="1" spans="1:7">
+      <c r="A62" s="4"/>
       <c r="B62" s="4"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
+      <c r="E62" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
-      <c r="E63" s="40"/>
-      <c r="F63" s="40"/>
-      <c r="G63" s="40"/>
+      <c r="C63" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G63" s="16" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
-      <c r="E64" s="40"/>
-      <c r="F64" s="40"/>
-      <c r="G64" s="40"/>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="C64" s="31"/>
+      <c r="D64" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="E64" s="44"/>
+      <c r="F64" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="G64" s="46"/>
+    </row>
+    <row r="65" ht="7" customHeight="1" spans="1:7">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
-      <c r="E65" s="40"/>
-      <c r="F65" s="40"/>
-      <c r="G65" s="40"/>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="C65" s="31"/>
+      <c r="D65" s="47"/>
+      <c r="E65" s="48"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="50"/>
+    </row>
+    <row r="66" hidden="1" spans="1:7">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
-      <c r="E66" s="40"/>
-      <c r="F66" s="40"/>
-      <c r="G66" s="40"/>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="C66" s="31"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="45"/>
+      <c r="G66" s="46"/>
+    </row>
+    <row r="67" ht="2" customHeight="1" spans="1:7">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
-      <c r="E67" s="40"/>
-      <c r="F67" s="40"/>
-      <c r="G67" s="40"/>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D68" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E68" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F68" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="19"/>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="C67" s="37"/>
+      <c r="D67" s="51"/>
+      <c r="E67" s="52"/>
+      <c r="F67" s="53"/>
+      <c r="G67" s="54"/>
+    </row>
+    <row r="68" s="2" customFormat="1"/>
+    <row r="69" ht="12" customHeight="1" spans="1:7">
+      <c r="A69" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69" s="55"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+    </row>
+    <row r="70" ht="39" customHeight="1" spans="1:6">
       <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="21"/>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="B70" s="55"/>
+      <c r="F70" s="38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" ht="139" customHeight="1" spans="1:6">
       <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="19"/>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="B71" s="55"/>
+      <c r="F71" s="56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" ht="64" customHeight="1" spans="1:6">
       <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="21"/>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="B72" s="55"/>
+      <c r="F72" s="38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" ht="115" customHeight="1" spans="1:6">
       <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="37"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="28"/>
-    </row>
-    <row r="74" s="2" customFormat="1"/>
-    <row r="75" spans="1:7">
-      <c r="A75" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="7" t="s">
+      <c r="B73" s="55"/>
+      <c r="F73" s="38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" ht="93" customHeight="1" spans="1:6">
+      <c r="A74" s="4"/>
+      <c r="B74" s="55"/>
+      <c r="F74" s="38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" s="2" customFormat="1"/>
+    <row r="76" spans="1:7">
+      <c r="A76" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B76" s="55"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E76" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-    </row>
-    <row r="76" ht="100" customHeight="1" spans="1:7">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
-      <c r="E76" s="40"/>
-      <c r="F76" s="40"/>
-      <c r="G76" s="40"/>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+    </row>
+    <row r="77" ht="64" customHeight="1" spans="1:7">
       <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="E77" s="40"/>
-      <c r="F77" s="40"/>
-      <c r="G77" s="40"/>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-      <c r="E78" s="40"/>
-      <c r="F78" s="40"/>
-      <c r="G78" s="40"/>
-    </row>
+      <c r="B77" s="55"/>
+      <c r="E77" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+    </row>
+    <row r="78" s="2" customFormat="1"/>
     <row r="79" spans="1:7">
-      <c r="A79" s="4"/>
+      <c r="A79" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="B79" s="4"/>
-      <c r="C79" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D79" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E79" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F79" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="C79" s="6"/>
+      <c r="D79" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+    </row>
+    <row r="80" ht="49" customHeight="1" spans="1:7">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
-      <c r="C80" s="31"/>
-      <c r="D80" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="19"/>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="E80" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+    </row>
+    <row r="81" ht="39" customHeight="1" spans="1:7">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
-      <c r="C81" s="31"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="21"/>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="E81" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+    </row>
+    <row r="82" ht="44" customHeight="1" spans="1:7">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
-      <c r="C82" s="31"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="19"/>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="E82" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+    </row>
+    <row r="83" ht="53" customHeight="1" spans="1:7">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
-      <c r="C83" s="37"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="28"/>
-    </row>
-    <row r="84" s="2" customFormat="1"/>
-    <row r="85" ht="12" customHeight="1" spans="1:7">
-      <c r="A85" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B85" s="40"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="7" t="s">
+      <c r="E83" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+    </row>
+    <row r="84" ht="52" customHeight="1" spans="1:7">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="E84" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+    </row>
+    <row r="85" ht="50" customHeight="1" spans="1:7">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="E85" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+    </row>
+    <row r="86" s="2" customFormat="1"/>
+    <row r="87" spans="1:7">
+      <c r="A87" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B87" s="55"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E85" s="7" t="s">
+      <c r="E87" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-    </row>
-    <row r="86" ht="39" customHeight="1" spans="1:2">
-      <c r="A86" s="4"/>
-      <c r="B86" s="40"/>
-    </row>
-    <row r="87" ht="167" customHeight="1" spans="1:2">
-      <c r="A87" s="4"/>
-      <c r="B87" s="40"/>
-    </row>
-    <row r="88" ht="119" customHeight="1" spans="1:2">
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+    </row>
+    <row r="88" ht="303" customHeight="1" spans="1:7">
       <c r="A88" s="4"/>
-      <c r="B88" s="40"/>
-    </row>
-    <row r="89" ht="141" customHeight="1" spans="1:2">
-      <c r="A89" s="4"/>
-      <c r="B89" s="40"/>
-    </row>
-    <row r="90" ht="119" customHeight="1" spans="1:2">
+      <c r="B88" s="55"/>
+      <c r="E88" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="F88" s="39"/>
+      <c r="G88" s="39"/>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+    </row>
+    <row r="90" spans="1:1">
       <c r="A90" s="4"/>
-      <c r="B90" s="40"/>
-    </row>
-    <row r="91" s="2" customFormat="1"/>
-    <row r="92" spans="1:7">
-      <c r="A92" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B92" s="40"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-    </row>
-    <row r="93" ht="64" customHeight="1" spans="1:7">
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="4"/>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="4"/>
+    </row>
+    <row r="93" spans="1:1">
       <c r="A93" s="4"/>
-      <c r="B93" s="40"/>
-      <c r="E93" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
-    </row>
-    <row r="94" s="2" customFormat="1"/>
-    <row r="95" spans="1:7">
-      <c r="A95" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B95" s="4"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-    </row>
-    <row r="96" ht="49" customHeight="1" spans="1:7">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
-      <c r="E96" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
-    </row>
-    <row r="97" ht="39" customHeight="1" spans="1:7">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
-      <c r="E97" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
-    </row>
-    <row r="98" ht="44" customHeight="1" spans="1:7">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
-      <c r="E98" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F98" s="10"/>
-      <c r="G98" s="10"/>
-    </row>
-    <row r="99" ht="53" customHeight="1" spans="1:7">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-      <c r="E99" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
-    </row>
-    <row r="100" ht="52" customHeight="1" spans="1:7">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
-      <c r="E100" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F100" s="10"/>
-      <c r="G100" s="10"/>
-    </row>
-    <row r="101" ht="50" customHeight="1" spans="1:7">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
-      <c r="E101" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F101" s="10"/>
-      <c r="G101" s="10"/>
-    </row>
-    <row r="102" s="2" customFormat="1"/>
-    <row r="103" spans="1:7">
-      <c r="A103" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B103" s="40"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E103" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
-    </row>
-    <row r="104" ht="314" customHeight="1" spans="1:7">
-      <c r="A104" s="4"/>
-      <c r="B104" s="40"/>
-      <c r="E104" s="40"/>
-      <c r="F104" s="40"/>
-      <c r="G104" s="40"/>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="4"/>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="4"/>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="4"/>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="61">
+  <mergeCells count="57">
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="E3:G3"/>
@@ -2134,56 +2132,52 @@
     <mergeCell ref="E49:G49"/>
     <mergeCell ref="E51:G51"/>
     <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E61:G61"/>
     <mergeCell ref="E62:G62"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="E69:G69"/>
     <mergeCell ref="E76:G76"/>
     <mergeCell ref="E77:G77"/>
-    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="E84:G84"/>
     <mergeCell ref="E85:G85"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="E104:G104"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="E88:G88"/>
     <mergeCell ref="A2:A24"/>
     <mergeCell ref="A26:A46"/>
     <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A51:A60"/>
-    <mergeCell ref="A62:A73"/>
-    <mergeCell ref="A75:A83"/>
-    <mergeCell ref="A85:A90"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A95:A101"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="A51:A59"/>
+    <mergeCell ref="A61:A67"/>
+    <mergeCell ref="A69:A74"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A79:A85"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A90:A93"/>
     <mergeCell ref="B2:B24"/>
     <mergeCell ref="B26:B46"/>
     <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B51:B60"/>
-    <mergeCell ref="B62:B73"/>
-    <mergeCell ref="B75:B83"/>
-    <mergeCell ref="B85:B90"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B95:B101"/>
-    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="B51:B59"/>
+    <mergeCell ref="B61:B67"/>
+    <mergeCell ref="B69:B74"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="B79:B85"/>
+    <mergeCell ref="B87:B88"/>
     <mergeCell ref="C6:C24"/>
     <mergeCell ref="C28:C46"/>
-    <mergeCell ref="C53:C60"/>
-    <mergeCell ref="C68:C73"/>
-    <mergeCell ref="C79:C83"/>
+    <mergeCell ref="C53:C59"/>
+    <mergeCell ref="C63:C67"/>
     <mergeCell ref="D10:D16"/>
     <mergeCell ref="D18:D24"/>
     <mergeCell ref="D32:D38"/>
     <mergeCell ref="D40:D46"/>
-    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="E64:E67"/>
+    <mergeCell ref="F64:F67"/>
+    <mergeCell ref="G64:G67"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
